--- a/data/nzd0090/nzd0090.xlsx
+++ b/data/nzd0090/nzd0090.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M291"/>
+  <dimension ref="A1:M296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12931,6 +12931,217 @@
         </is>
       </c>
     </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr"/>
+      <c r="C292" t="n">
+        <v>300.78</v>
+      </c>
+      <c r="D292" t="n">
+        <v>299.3333333333333</v>
+      </c>
+      <c r="E292" t="n">
+        <v>300.43</v>
+      </c>
+      <c r="F292" t="n">
+        <v>308.42</v>
+      </c>
+      <c r="G292" t="n">
+        <v>313.28</v>
+      </c>
+      <c r="H292" t="n">
+        <v>317.03</v>
+      </c>
+      <c r="I292" t="n">
+        <v>324.0022222222222</v>
+      </c>
+      <c r="J292" t="n">
+        <v>318.26</v>
+      </c>
+      <c r="K292" t="n">
+        <v>315.0354545454546</v>
+      </c>
+      <c r="L292" t="n">
+        <v>322.71</v>
+      </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>314.5142857142857</v>
+      </c>
+      <c r="C293" t="n">
+        <v>309.4642857142857</v>
+      </c>
+      <c r="D293" t="n">
+        <v>307.5133333333333</v>
+      </c>
+      <c r="E293" t="n">
+        <v>313.8142857142857</v>
+      </c>
+      <c r="F293" t="n">
+        <v>321.4342857142857</v>
+      </c>
+      <c r="G293" t="n">
+        <v>327.5042857142857</v>
+      </c>
+      <c r="H293" t="n">
+        <v>323.0215384615385</v>
+      </c>
+      <c r="I293" t="n">
+        <v>333.3288888888889</v>
+      </c>
+      <c r="J293" t="n">
+        <v>342.97</v>
+      </c>
+      <c r="K293" t="n">
+        <v>343.5181818181818</v>
+      </c>
+      <c r="L293" t="n">
+        <v>336.56</v>
+      </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>317.5042857142857</v>
+      </c>
+      <c r="C294" t="n">
+        <v>307.2942857142857</v>
+      </c>
+      <c r="D294" t="n">
+        <v>302.7066666666666</v>
+      </c>
+      <c r="E294" t="n">
+        <v>307.9142857142857</v>
+      </c>
+      <c r="F294" t="n">
+        <v>312.5542857142857</v>
+      </c>
+      <c r="G294" t="inlineStr"/>
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>317.3871428571428</v>
+      </c>
+      <c r="C295" t="n">
+        <v>305.3871428571428</v>
+      </c>
+      <c r="D295" t="n">
+        <v>304.6766666666666</v>
+      </c>
+      <c r="E295" t="n">
+        <v>305.5771428571429</v>
+      </c>
+      <c r="F295" t="n">
+        <v>313.0471428571428</v>
+      </c>
+      <c r="G295" t="n">
+        <v>324.5171428571429</v>
+      </c>
+      <c r="H295" t="n">
+        <v>323.7676923076923</v>
+      </c>
+      <c r="I295" t="n">
+        <v>325.8011111111111</v>
+      </c>
+      <c r="J295" t="n">
+        <v>338.14</v>
+      </c>
+      <c r="K295" t="n">
+        <v>341.3845454545454</v>
+      </c>
+      <c r="L295" t="n">
+        <v>340.83</v>
+      </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>313.5085714285714</v>
+      </c>
+      <c r="C296" t="n">
+        <v>309.8085714285714</v>
+      </c>
+      <c r="D296" t="n">
+        <v>303.1933333333333</v>
+      </c>
+      <c r="E296" t="n">
+        <v>309.2285714285715</v>
+      </c>
+      <c r="F296" t="n">
+        <v>317.8485714285715</v>
+      </c>
+      <c r="G296" t="n">
+        <v>323.1785714285714</v>
+      </c>
+      <c r="H296" t="n">
+        <v>328.6269230769231</v>
+      </c>
+      <c r="I296" t="n">
+        <v>328.3788888888889</v>
+      </c>
+      <c r="J296" t="n">
+        <v>340.9</v>
+      </c>
+      <c r="K296" t="n">
+        <v>347.0818181818182</v>
+      </c>
+      <c r="L296" t="n">
+        <v>333.98</v>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -12942,7 +13153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B299"/>
+  <dimension ref="A1:B304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15940,6 +16151,56 @@
       </c>
       <c r="B299" t="n">
         <v>0.57</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>-0.32</v>
       </c>
     </row>
   </sheetData>
@@ -16108,28 +16369,28 @@
         <v>0.0747</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1640365135823451</v>
+        <v>0.1738982253805677</v>
       </c>
       <c r="J2" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K2" t="n">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0193631804820581</v>
+        <v>0.02236317152413403</v>
       </c>
       <c r="M2" t="n">
-        <v>6.11294226557388</v>
+        <v>6.062215523393872</v>
       </c>
       <c r="N2" t="n">
-        <v>66.67631819070991</v>
+        <v>65.86341430504932</v>
       </c>
       <c r="O2" t="n">
-        <v>8.165556820616088</v>
+        <v>8.115627782559358</v>
       </c>
       <c r="P2" t="n">
-        <v>308.4118597867</v>
+        <v>308.3116452722665</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -16185,28 +16446,28 @@
         <v>0.0756</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1585911071829063</v>
+        <v>0.1705845907113414</v>
       </c>
       <c r="J3" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K3" t="n">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02144998553559141</v>
+        <v>0.02554566658554758</v>
       </c>
       <c r="M3" t="n">
-        <v>5.699937038812863</v>
+        <v>5.666158894507673</v>
       </c>
       <c r="N3" t="n">
-        <v>56.13633116206192</v>
+        <v>55.47529580926717</v>
       </c>
       <c r="O3" t="n">
-        <v>7.492418245270477</v>
+        <v>7.448173991608089</v>
       </c>
       <c r="P3" t="n">
-        <v>299.3639187299155</v>
+        <v>299.24146881636</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -16262,28 +16523,28 @@
         <v>0.082</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1248058281845051</v>
+        <v>0.1374212607928236</v>
       </c>
       <c r="J4" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K4" t="n">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01090224555438812</v>
+        <v>0.01365469036726141</v>
       </c>
       <c r="M4" t="n">
-        <v>6.158572156444207</v>
+        <v>6.115391966292776</v>
       </c>
       <c r="N4" t="n">
-        <v>68.93070874892453</v>
+        <v>67.98729924546988</v>
       </c>
       <c r="O4" t="n">
-        <v>8.302451972093818</v>
+        <v>8.245441118913522</v>
       </c>
       <c r="P4" t="n">
-        <v>296.9898701982931</v>
+        <v>296.8612214393276</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -16339,28 +16600,28 @@
         <v>0.0745</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1222494190809054</v>
+        <v>0.142536812826569</v>
       </c>
       <c r="J5" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K5" t="n">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01118149930718559</v>
+        <v>0.01556546195056663</v>
       </c>
       <c r="M5" t="n">
-        <v>6.216380431956443</v>
+        <v>6.206667859409249</v>
       </c>
       <c r="N5" t="n">
-        <v>65.47689961023354</v>
+        <v>65.10766695949451</v>
       </c>
       <c r="O5" t="n">
-        <v>8.09177975542053</v>
+        <v>8.06893220689668</v>
       </c>
       <c r="P5" t="n">
-        <v>299.0077908326334</v>
+        <v>298.8042718461995</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -16416,28 +16677,28 @@
         <v>0.075</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09199150587335013</v>
+        <v>0.1181134375558008</v>
       </c>
       <c r="J6" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K6" t="n">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006654120680583353</v>
+        <v>0.01114518037962819</v>
       </c>
       <c r="M6" t="n">
-        <v>6.017219503399851</v>
+        <v>6.032909284116713</v>
       </c>
       <c r="N6" t="n">
-        <v>62.90330032143876</v>
+        <v>62.96958715464967</v>
       </c>
       <c r="O6" t="n">
-        <v>7.931160086736288</v>
+        <v>7.935337872746798</v>
       </c>
       <c r="P6" t="n">
-        <v>305.3409228181208</v>
+        <v>305.0785138819924</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -16493,28 +16754,28 @@
         <v>0.0769</v>
       </c>
       <c r="I7" t="n">
-        <v>0.144594847117157</v>
+        <v>0.1553878495212493</v>
       </c>
       <c r="J7" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K7" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01711807857853376</v>
+        <v>0.0201391461200241</v>
       </c>
       <c r="M7" t="n">
-        <v>5.892333879812911</v>
+        <v>5.895490310984147</v>
       </c>
       <c r="N7" t="n">
-        <v>58.6673186748259</v>
+        <v>58.40106961267782</v>
       </c>
       <c r="O7" t="n">
-        <v>7.659459424451956</v>
+        <v>7.64205925210462</v>
       </c>
       <c r="P7" t="n">
-        <v>314.9082458076559</v>
+        <v>314.7978963865924</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -16570,28 +16831,28 @@
         <v>0.0684</v>
       </c>
       <c r="I8" t="n">
-        <v>0.131546824975197</v>
+        <v>0.1392877282976558</v>
       </c>
       <c r="J8" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K8" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01242110465780666</v>
+        <v>0.01430137476147497</v>
       </c>
       <c r="M8" t="n">
-        <v>6.263301811535636</v>
+        <v>6.230275675848599</v>
       </c>
       <c r="N8" t="n">
-        <v>67.17560624726441</v>
+        <v>66.50763429775</v>
       </c>
       <c r="O8" t="n">
-        <v>8.196072611151296</v>
+        <v>8.155221290544482</v>
       </c>
       <c r="P8" t="n">
-        <v>317.3385119372646</v>
+        <v>317.2598960411341</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -16647,28 +16908,28 @@
         <v>0.0462</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1800639613897021</v>
+        <v>0.1809761671999052</v>
       </c>
       <c r="J9" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K9" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01830829276069712</v>
+        <v>0.01909606613217285</v>
       </c>
       <c r="M9" t="n">
-        <v>7.219713538576666</v>
+        <v>7.155063657431411</v>
       </c>
       <c r="N9" t="n">
-        <v>84.20636561061609</v>
+        <v>83.11405995158125</v>
       </c>
       <c r="O9" t="n">
-        <v>9.176402650854859</v>
+        <v>9.116691283112599</v>
       </c>
       <c r="P9" t="n">
-        <v>323.0453697323732</v>
+        <v>323.0361295250198</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -16724,28 +16985,28 @@
         <v>0.0417</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06978310138233094</v>
+        <v>0.05636138954097255</v>
       </c>
       <c r="J10" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K10" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00264361387414247</v>
+        <v>0.001752778794135934</v>
       </c>
       <c r="M10" t="n">
-        <v>7.614997049408555</v>
+        <v>7.601733171240962</v>
       </c>
       <c r="N10" t="n">
-        <v>89.26567268963578</v>
+        <v>89.64113077778602</v>
       </c>
       <c r="O10" t="n">
-        <v>9.448051264130386</v>
+        <v>9.467900019422787</v>
       </c>
       <c r="P10" t="n">
-        <v>337.5080264313839</v>
+        <v>337.6425824587721</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -16801,28 +17062,28 @@
         <v>0.0565</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08915794926297688</v>
+        <v>0.07282126842223517</v>
       </c>
       <c r="J11" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K11" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006578984697691026</v>
+        <v>0.004336600932042356</v>
       </c>
       <c r="M11" t="n">
-        <v>5.967878917864894</v>
+        <v>6.014858559521493</v>
       </c>
       <c r="N11" t="n">
-        <v>57.64502484898376</v>
+        <v>59.63204253641344</v>
       </c>
       <c r="O11" t="n">
-        <v>7.592432077337522</v>
+        <v>7.722178613345681</v>
       </c>
       <c r="P11" t="n">
-        <v>339.5291627762866</v>
+        <v>339.6945803054497</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -16878,28 +17139,28 @@
         <v>0.0541</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1537414407459993</v>
+        <v>0.1563263984935005</v>
       </c>
       <c r="J12" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K12" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01349532117415919</v>
+        <v>0.01431345033330067</v>
       </c>
       <c r="M12" t="n">
-        <v>7.106144739424728</v>
+        <v>7.085819932303659</v>
       </c>
       <c r="N12" t="n">
-        <v>81.8974129478888</v>
+        <v>81.32645630119944</v>
       </c>
       <c r="O12" t="n">
-        <v>9.049718943032916</v>
+        <v>9.018118223953346</v>
       </c>
       <c r="P12" t="n">
-        <v>328.8861870835256</v>
+        <v>328.8589658441429</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -16936,7 +17197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M291"/>
+  <dimension ref="A1:M296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35197,6 +35458,313 @@
         </is>
       </c>
     </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr"/>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>-35.56011035604377,174.48693375076974</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>-35.560416236684574,174.48774993737658</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>-35.560701040794754,174.48857717049896</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>-35.56092937505913,174.4894362131379</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>-35.56118708131799,174.49030916458244</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>-35.561381520449565,174.49120415546423</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>-35.56154099800845,174.49208337606282</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>-35.56182136033446,174.49297748514078</t>
+        </is>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>-35.561906438896486,174.49393641337252</t>
+        </is>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>-35.561852207912864,174.49484795125738</t>
+        </is>
+      </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>-35.55970265280981,174.48617093421637</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>-35.56003839341772,174.4869714696878</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>-35.56034845270119,174.4877854656799</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>-35.56059013099867,174.48863530205327</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>-35.560821373752084,174.48949228543333</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>-35.56106649011898,174.49036250403375</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>-35.56132985575301,174.49122342665694</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>-35.56146057456753,174.49211337382545</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>-35.56160211044704,174.49302562071415</t>
+        </is>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>-35.56164983015104,174.49394717645018</t>
+        </is>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>-35.561727362680706,174.4948495062273</t>
+        </is>
+      </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>-35.5596778761205,174.4861839209362</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>-35.56005637519684,174.48696204461802</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>-35.560388283388626,174.48776458882736</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>-35.56063902175414,174.48860967678488</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>-35.560895065974755,174.4894540258017</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr"/>
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>-35.55967884682694,174.48618341213987</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>-35.560072178800695,174.4869537612255</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>-35.560371958883984,174.48777314515425</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>-35.56065838864764,174.4885995259438</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>-35.56089097591444,174.48945614928692</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>-35.561091814635944,174.49035130260106</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>-35.56132342171049,174.49122582658558</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>-35.56152548626837,174.49208916191168</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>-35.561644966658946,174.4930162117967</t>
+        </is>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>-35.561669052669835,174.49394637019117</t>
+        </is>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>-35.561688872489505,174.49484998563</t>
+        </is>
+      </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>-35.55971098667921,174.48616656601072</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>-35.56003554048234,174.48697296504082</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>-35.56038425060073,174.48776670257342</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>-35.56062813083568,174.48861538507973</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>-35.56085113042638,174.48947683633028</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>-35.56110316282903,174.49034628311418</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>-35.561281520836566,174.4912414558025</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>-35.56150325820306,174.49209745293285</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>-35.56162047739509,174.49302158832208</t>
+        </is>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>-35.56161772436751,174.49394852307742</t>
+        </is>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>-35.56175061904904,174.49484921656486</t>
+        </is>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0090/nzd0090.xlsx
+++ b/data/nzd0090/nzd0090.xlsx
@@ -16214,7 +16214,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16305,35 +16305,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -16392,27 +16397,28 @@
       <c r="P2" t="n">
         <v>308.3116452722665</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.48480483431928 -35.5623088738648, 174.48882007023406 -35.55464816961754)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.4848048343193</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.5623088738648</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.4888200702341</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.55464816961754</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.4868124522767</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.55847852174117</v>
       </c>
     </row>
@@ -16469,27 +16475,28 @@
       <c r="P3" t="n">
         <v>299.24146881636</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.4856273166095 -35.5626027728531, 174.48964250967225 -35.5549420621226)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.4856273166095</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.5626027728531</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.4896425096723</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.5549420621226</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.4876349131409</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.55877241748784</v>
       </c>
     </row>
@@ -16546,27 +16553,28 @@
       <c r="P4" t="n">
         <v>296.8612214393276</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.48644979890025 -35.56289667076345, 174.49046494910945 -35.55523595355049)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.4864497989003</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.56289667076345</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.4904649491095</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.55523595355049</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.4884573740048</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.55906631215697</v>
       </c>
     </row>
@@ -16623,27 +16631,28 @@
       <c r="P5" t="n">
         <v>298.8042718461995</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.48727228119154 -35.56319056759578, 174.49128738854554 -35.55552984390123)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.4872722811915</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.56319056759578</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.4912873885455</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.55552984390123</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.4892798348685</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.5593602057485</v>
       </c>
     </row>
@@ -16700,27 +16709,28 @@
       <c r="P6" t="n">
         <v>305.0785138819924</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.48810733696322 -35.56348884480259, 174.49209030545433 -35.55581697068731)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.4881073369632</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.56348884480259</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.4920903054543</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.55581697068731</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.4900988212088</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.55965290774495</v>
       </c>
     </row>
@@ -16777,27 +16787,28 @@
       <c r="P7" t="n">
         <v>314.7978963865924</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.48913436117465 -35.56384301301175, 174.49260070296114 -35.556005978564386)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.4891343611746</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-35.56384301301175</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.4926007029611</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-35.55600597856439</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.4908675320679</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-35.55992449578807</v>
       </c>
     </row>
@@ -16854,27 +16865,28 @@
       <c r="P8" t="n">
         <v>317.2598960411341</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.4901844259881 -35.56411524802032, 174.49315747487967 -35.556144472768416)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.4901844259881</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-35.56411524802032</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.4931574748797</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-35.55614447276842</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.4916709504339</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-35.56012986039437</v>
       </c>
     </row>
@@ -16931,27 +16943,28 @@
       <c r="P9" t="n">
         <v>323.0361295250198</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.49104123808002 -35.56433485069946, 174.49401423595015 -35.55636407102614)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.49104123808</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-35.56433485069946</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.4940142359501</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-35.55636407102614</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.4925277370151</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-35.5603494608628</v>
       </c>
     </row>
@@ -17008,27 +17021,28 @@
       <c r="P10" t="n">
         <v>337.6425824587721</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.4923574867399 -35.56464525445637, 174.49415796676314 -35.55644413123061)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.4923574867399</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-35.56464525445637</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.4941579667631</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-35.55644413123061</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.4932577267515</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-35.56054469284349</v>
       </c>
     </row>
@@ -17085,27 +17099,28 @@
       <c r="P11" t="n">
         <v>339.6945803054497</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.4938173649105 -35.56474467953442, 174.49416661195576 -35.55641793754781)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.4938173649105</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-35.56474467953442</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.4941666119558</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-35.55641793754781</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.4939919884332</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-35.56058130854112</v>
       </c>
     </row>
@@ -17162,27 +17177,28 @@
       <c r="P12" t="n">
         <v>328.8589658441429</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.49481172053135 -35.56476114621201, 174.49491548829604 -35.55642996596577)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.4948117205313</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-35.56476114621201</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.494915488296</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-35.55642996596577</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.4948636044137</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-35.56059555608888</v>
       </c>
     </row>

--- a/data/nzd0090/nzd0090.xlsx
+++ b/data/nzd0090/nzd0090.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M296"/>
+  <dimension ref="A1:M299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13142,6 +13142,127 @@
         </is>
       </c>
     </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>316.2257142857143</v>
+      </c>
+      <c r="C297" t="n">
+        <v>308.8557142857143</v>
+      </c>
+      <c r="D297" t="n">
+        <v>303.0433333333333</v>
+      </c>
+      <c r="E297" t="n">
+        <v>300.7257142857143</v>
+      </c>
+      <c r="F297" t="n">
+        <v>299.0157142857143</v>
+      </c>
+      <c r="G297" t="n">
+        <v>292.5757142857143</v>
+      </c>
+      <c r="H297" t="n">
+        <v>306.4592307692308</v>
+      </c>
+      <c r="I297" t="n">
+        <v>307.1655555555556</v>
+      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr"/>
+      <c r="C298" t="inlineStr"/>
+      <c r="D298" t="inlineStr"/>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" t="n">
+        <v>321.3214285714286</v>
+      </c>
+      <c r="G298" t="n">
+        <v>321.2714285714285</v>
+      </c>
+      <c r="H298" t="n">
+        <v>323.8930769230769</v>
+      </c>
+      <c r="I298" t="n">
+        <v>329.6888888888889</v>
+      </c>
+      <c r="J298" t="n">
+        <v>341.55</v>
+      </c>
+      <c r="K298" t="n">
+        <v>347.1027272727272</v>
+      </c>
+      <c r="L298" t="n">
+        <v>336.15</v>
+      </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:32+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>308.4928571428572</v>
+      </c>
+      <c r="C299" t="n">
+        <v>297.0428571428571</v>
+      </c>
+      <c r="D299" t="n">
+        <v>295.2633333333333</v>
+      </c>
+      <c r="E299" t="n">
+        <v>292.4028571428572</v>
+      </c>
+      <c r="F299" t="n">
+        <v>296.9328571428572</v>
+      </c>
+      <c r="G299" t="n">
+        <v>301.6028571428571</v>
+      </c>
+      <c r="H299" t="n">
+        <v>299.2038461538461</v>
+      </c>
+      <c r="I299" t="n">
+        <v>312.3722222222222</v>
+      </c>
+      <c r="J299" t="n">
+        <v>324.48</v>
+      </c>
+      <c r="K299" t="n">
+        <v>331.3518181818182</v>
+      </c>
+      <c r="L299" t="n">
+        <v>318.61</v>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -13153,7 +13274,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B304"/>
+  <dimension ref="A1:B307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16201,6 +16322,36 @@
       </c>
       <c r="B304" t="n">
         <v>-0.32</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -16374,28 +16525,28 @@
         <v>0.0747</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1738982253805677</v>
+        <v>0.1732558112255607</v>
       </c>
       <c r="J2" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K2" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02236317152413403</v>
+        <v>0.0225241736286993</v>
       </c>
       <c r="M2" t="n">
-        <v>6.062215523393872</v>
+        <v>6.046328693413227</v>
       </c>
       <c r="N2" t="n">
-        <v>65.86341430504932</v>
+        <v>65.4852223938081</v>
       </c>
       <c r="O2" t="n">
-        <v>8.115627782559358</v>
+        <v>8.092294013060085</v>
       </c>
       <c r="P2" t="n">
-        <v>308.3116452722665</v>
+        <v>308.318415548137</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16452,28 +16603,28 @@
         <v>0.0756</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1705845907113414</v>
+        <v>0.1695577712237216</v>
       </c>
       <c r="J3" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K3" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02554566658554758</v>
+        <v>0.02552165804952677</v>
       </c>
       <c r="M3" t="n">
-        <v>5.666158894507673</v>
+        <v>5.668537399142584</v>
       </c>
       <c r="N3" t="n">
-        <v>55.47529580926717</v>
+        <v>55.32840054941424</v>
       </c>
       <c r="O3" t="n">
-        <v>7.448173991608089</v>
+        <v>7.438306295751355</v>
       </c>
       <c r="P3" t="n">
-        <v>299.24146881636</v>
+        <v>299.2523169026528</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16530,28 +16681,28 @@
         <v>0.082</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1374212607928236</v>
+        <v>0.1355539440058792</v>
       </c>
       <c r="J4" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K4" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01365469036726141</v>
+        <v>0.01347697138304271</v>
       </c>
       <c r="M4" t="n">
-        <v>6.115391966292776</v>
+        <v>6.09882939522475</v>
       </c>
       <c r="N4" t="n">
-        <v>67.98729924546988</v>
+        <v>67.61251973507055</v>
       </c>
       <c r="O4" t="n">
-        <v>8.245441118913522</v>
+        <v>8.22268324423789</v>
       </c>
       <c r="P4" t="n">
-        <v>296.8612214393276</v>
+        <v>296.8806258803129</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16608,28 +16759,28 @@
         <v>0.0745</v>
       </c>
       <c r="I5" t="n">
-        <v>0.142536812826569</v>
+        <v>0.1335233298700383</v>
       </c>
       <c r="J5" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K5" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01556546195056663</v>
+        <v>0.01382768154543212</v>
       </c>
       <c r="M5" t="n">
-        <v>6.206667859409249</v>
+        <v>6.204543936165901</v>
       </c>
       <c r="N5" t="n">
-        <v>65.10766695949451</v>
+        <v>65.0040461307609</v>
       </c>
       <c r="O5" t="n">
-        <v>8.06893220689668</v>
+        <v>8.062508674771204</v>
       </c>
       <c r="P5" t="n">
-        <v>298.8042718461995</v>
+        <v>298.8957460990147</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16686,28 +16837,28 @@
         <v>0.075</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1181134375558008</v>
+        <v>0.112924091267029</v>
       </c>
       <c r="J6" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K6" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01114518037962819</v>
+        <v>0.01021254963721652</v>
       </c>
       <c r="M6" t="n">
-        <v>6.032909284116713</v>
+        <v>6.088952091042865</v>
       </c>
       <c r="N6" t="n">
-        <v>62.96958715464967</v>
+        <v>63.66980843770114</v>
       </c>
       <c r="O6" t="n">
-        <v>7.935337872746798</v>
+        <v>7.979336340680291</v>
       </c>
       <c r="P6" t="n">
-        <v>305.0785138819924</v>
+        <v>305.1313084925484</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16764,28 +16915,28 @@
         <v>0.0769</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1553878495212493</v>
+        <v>0.1250049808129619</v>
       </c>
       <c r="J7" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K7" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0201391461200241</v>
+        <v>0.01267755959002803</v>
       </c>
       <c r="M7" t="n">
-        <v>5.895490310984147</v>
+        <v>5.99975674798596</v>
       </c>
       <c r="N7" t="n">
-        <v>58.40106961267782</v>
+        <v>61.27167893637177</v>
       </c>
       <c r="O7" t="n">
-        <v>7.64205925210462</v>
+        <v>7.827622815157343</v>
       </c>
       <c r="P7" t="n">
-        <v>314.7978963865924</v>
+        <v>315.1106831840777</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -16842,28 +16993,28 @@
         <v>0.0684</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1392877282976558</v>
+        <v>0.1138677962546645</v>
       </c>
       <c r="J8" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K8" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01430137476147497</v>
+        <v>0.009488364552866502</v>
       </c>
       <c r="M8" t="n">
-        <v>6.230275675848599</v>
+        <v>6.317970544880254</v>
       </c>
       <c r="N8" t="n">
-        <v>66.50763429775</v>
+        <v>68.24974650879365</v>
       </c>
       <c r="O8" t="n">
-        <v>8.155221290544482</v>
+        <v>8.261340478929171</v>
       </c>
       <c r="P8" t="n">
-        <v>317.2598960411341</v>
+        <v>317.5196336012795</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -16920,28 +17071,28 @@
         <v>0.0462</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1809761671999052</v>
+        <v>0.1541536084701532</v>
       </c>
       <c r="J9" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K9" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01909606613217285</v>
+        <v>0.01388569335041268</v>
       </c>
       <c r="M9" t="n">
-        <v>7.155063657431411</v>
+        <v>7.218125484670446</v>
       </c>
       <c r="N9" t="n">
-        <v>83.11405995158125</v>
+        <v>84.59576443331558</v>
       </c>
       <c r="O9" t="n">
-        <v>9.116691283112599</v>
+        <v>9.197595578917111</v>
       </c>
       <c r="P9" t="n">
-        <v>323.0361295250198</v>
+        <v>323.309110394212</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -16998,28 +17149,28 @@
         <v>0.0417</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05636138954097255</v>
+        <v>0.04652359834306465</v>
       </c>
       <c r="J10" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K10" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001752778794135934</v>
+        <v>0.001204822134048267</v>
       </c>
       <c r="M10" t="n">
-        <v>7.601733171240962</v>
+        <v>7.60776050491701</v>
       </c>
       <c r="N10" t="n">
-        <v>89.64113077778602</v>
+        <v>89.78611070345754</v>
       </c>
       <c r="O10" t="n">
-        <v>9.467900019422787</v>
+        <v>9.475553319118495</v>
       </c>
       <c r="P10" t="n">
-        <v>337.6425824587721</v>
+        <v>337.7431037762697</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -17076,28 +17227,28 @@
         <v>0.0565</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07282126842223517</v>
+        <v>0.06893828691089142</v>
       </c>
       <c r="J11" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K11" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004336600932042356</v>
+        <v>0.003922762715907413</v>
       </c>
       <c r="M11" t="n">
-        <v>6.014858559521493</v>
+        <v>6.031570166361361</v>
       </c>
       <c r="N11" t="n">
-        <v>59.63204253641344</v>
+        <v>59.69163972556959</v>
       </c>
       <c r="O11" t="n">
-        <v>7.722178613345681</v>
+        <v>7.726036482283111</v>
       </c>
       <c r="P11" t="n">
-        <v>339.6945803054497</v>
+        <v>339.734849402861</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -17154,28 +17305,28 @@
         <v>0.0541</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1563263984935005</v>
+        <v>0.1472118964112666</v>
       </c>
       <c r="J12" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K12" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01431345033330067</v>
+        <v>0.01280650241519077</v>
       </c>
       <c r="M12" t="n">
-        <v>7.085819932303659</v>
+        <v>7.096999177958894</v>
       </c>
       <c r="N12" t="n">
-        <v>81.32645630119944</v>
+        <v>81.51937954491876</v>
       </c>
       <c r="O12" t="n">
-        <v>9.018118223953346</v>
+        <v>9.028808312558128</v>
       </c>
       <c r="P12" t="n">
-        <v>328.8589658441429</v>
+        <v>328.9543854671827</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -17213,7 +17364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M296"/>
+  <dimension ref="A1:M299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35781,6 +35932,179 @@
         </is>
       </c>
     </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>-35.559688471026014,174.48617836760974</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>-35.56004343636573,174.48696882644944</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>-35.560385493583304,174.48776605107636</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>-35.56069859033843,174.48857845486734</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>-35.561007418139965,174.4893956945046</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>-35.56136260887192,174.49023152559369</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>-35.56147267158639,174.49117015556953</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>-35.561686179834794,174.4920292234163</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr"/>
+      <c r="C298" t="inlineStr"/>
+      <c r="D298" t="inlineStr"/>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>-35.56082231031675,174.48949179918682</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>-35.561119331278796,174.49033913154835</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>-35.561322340526026,174.4912262298725</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>-35.56149196213002,174.49210166634236</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>-35.56161470999595,174.4930228545323</t>
+        </is>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>-35.56161753599174,174.49394853097854</t>
+        </is>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>-35.561731058460175,174.49484946019564</t>
+        </is>
+      </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:32+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>-35.55975254948306,174.4861447808129</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>-35.560141324000526,174.4869175190191</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>-35.56044996294161,174.4877322600695</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>-35.56076755824877,174.48854230638287</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>-35.56102470308611,174.48938672044488</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>-35.56128607823437,174.4902653765115</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>-35.56153523434657,174.49114681925806</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>-35.561641282982606,174.49204596990901</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>-35.56176617076539,174.49298960184768</t>
+        </is>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>-35.5617594402777,174.4939425790189</t>
+        </is>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>-35.561889165706766,174.49484749094182</t>
+        </is>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0090/nzd0090.xlsx
+++ b/data/nzd0090/nzd0090.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M299"/>
+  <dimension ref="A1:M302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13263,6 +13263,141 @@
         </is>
       </c>
     </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>309.0585714285714</v>
+      </c>
+      <c r="C300" t="n">
+        <v>300.9485714285714</v>
+      </c>
+      <c r="D300" t="n">
+        <v>299.7433333333333</v>
+      </c>
+      <c r="E300" t="n">
+        <v>298.3585714285715</v>
+      </c>
+      <c r="F300" t="n">
+        <v>303.0285714285715</v>
+      </c>
+      <c r="G300" t="n">
+        <v>305.7485714285714</v>
+      </c>
+      <c r="H300" t="n">
+        <v>306.5392307692308</v>
+      </c>
+      <c r="I300" t="n">
+        <v>318.8788888888889</v>
+      </c>
+      <c r="J300" t="n">
+        <v>336.65</v>
+      </c>
+      <c r="K300" t="n">
+        <v>341.5163636363636</v>
+      </c>
+      <c r="L300" t="n">
+        <v>325.1</v>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>316.1657142857143</v>
+      </c>
+      <c r="C301" t="n">
+        <v>310.8657142857143</v>
+      </c>
+      <c r="D301" t="n">
+        <v>299.7433333333333</v>
+      </c>
+      <c r="E301" t="n">
+        <v>302.7457142857143</v>
+      </c>
+      <c r="F301" t="n">
+        <v>308.8657142857143</v>
+      </c>
+      <c r="G301" t="n">
+        <v>323.2957142857143</v>
+      </c>
+      <c r="H301" t="n">
+        <v>328.7892307692308</v>
+      </c>
+      <c r="I301" t="n">
+        <v>332.7655555555555</v>
+      </c>
+      <c r="J301" t="n">
+        <v>348.86</v>
+      </c>
+      <c r="K301" t="n">
+        <v>345.2845454545454</v>
+      </c>
+      <c r="L301" t="n">
+        <v>331.76</v>
+      </c>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>305.5857142857143</v>
+      </c>
+      <c r="C302" t="n">
+        <v>304.1657142857143</v>
+      </c>
+      <c r="D302" t="n">
+        <v>288.5333333333334</v>
+      </c>
+      <c r="E302" t="n">
+        <v>293.2957142857143</v>
+      </c>
+      <c r="F302" t="n">
+        <v>301.7457142857143</v>
+      </c>
+      <c r="G302" t="n">
+        <v>304.5357142857143</v>
+      </c>
+      <c r="H302" t="n">
+        <v>305.7538461538461</v>
+      </c>
+      <c r="I302" t="n">
+        <v>319.9755555555556</v>
+      </c>
+      <c r="J302" t="n">
+        <v>338.02</v>
+      </c>
+      <c r="K302" t="n">
+        <v>335.6236363636364</v>
+      </c>
+      <c r="L302" t="n">
+        <v>322.16</v>
+      </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -13274,7 +13409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B307"/>
+  <dimension ref="A1:B310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16352,6 +16487,36 @@
       </c>
       <c r="B307" t="n">
         <v>0.01</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
@@ -16525,28 +16690,28 @@
         <v>0.0747</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1732558112255607</v>
+        <v>0.1675824002180998</v>
       </c>
       <c r="J2" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K2" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0225241736286993</v>
+        <v>0.02152161670434427</v>
       </c>
       <c r="M2" t="n">
-        <v>6.046328693413227</v>
+        <v>6.035390830631887</v>
       </c>
       <c r="N2" t="n">
-        <v>65.4852223938081</v>
+        <v>65.04139044290412</v>
       </c>
       <c r="O2" t="n">
-        <v>8.092294013060085</v>
+        <v>8.064824266089381</v>
       </c>
       <c r="P2" t="n">
-        <v>308.318415548137</v>
+        <v>308.376965429424</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16603,28 +16768,28 @@
         <v>0.0756</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1695577712237216</v>
+        <v>0.1733729732021354</v>
       </c>
       <c r="J3" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K3" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02552165804952677</v>
+        <v>0.02716182712783544</v>
       </c>
       <c r="M3" t="n">
-        <v>5.668537399142584</v>
+        <v>5.642913207688661</v>
       </c>
       <c r="N3" t="n">
-        <v>55.32840054941424</v>
+        <v>54.94368114847352</v>
       </c>
       <c r="O3" t="n">
-        <v>7.438306295751355</v>
+        <v>7.412400498386034</v>
       </c>
       <c r="P3" t="n">
-        <v>299.2523169026528</v>
+        <v>299.2127753570363</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16681,28 +16846,28 @@
         <v>0.082</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1355539440058792</v>
+        <v>0.1259143333735554</v>
       </c>
       <c r="J4" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K4" t="n">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01347697138304271</v>
+        <v>0.01183625052026682</v>
       </c>
       <c r="M4" t="n">
-        <v>6.09882939522475</v>
+        <v>6.076319056059072</v>
       </c>
       <c r="N4" t="n">
-        <v>67.61251973507055</v>
+        <v>67.38098482473262</v>
       </c>
       <c r="O4" t="n">
-        <v>8.22268324423789</v>
+        <v>8.208592134144114</v>
       </c>
       <c r="P4" t="n">
-        <v>296.8806258803129</v>
+        <v>296.9805359697676</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16759,28 +16924,28 @@
         <v>0.0745</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1335233298700383</v>
+        <v>0.1241420738704747</v>
       </c>
       <c r="J5" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K5" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01382768154543212</v>
+        <v>0.01219920965979771</v>
       </c>
       <c r="M5" t="n">
-        <v>6.204543936165901</v>
+        <v>6.186533866622281</v>
       </c>
       <c r="N5" t="n">
-        <v>65.0040461307609</v>
+        <v>64.6396371885938</v>
       </c>
       <c r="O5" t="n">
-        <v>8.062508674771204</v>
+        <v>8.039877933687414</v>
       </c>
       <c r="P5" t="n">
-        <v>298.8957460990147</v>
+        <v>298.9913513179062</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16837,28 +17002,28 @@
         <v>0.075</v>
       </c>
       <c r="I6" t="n">
-        <v>0.112924091267029</v>
+        <v>0.1053938176378428</v>
       </c>
       <c r="J6" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K6" t="n">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01021254963721652</v>
+        <v>0.009081209718928673</v>
       </c>
       <c r="M6" t="n">
-        <v>6.088952091042865</v>
+        <v>6.066652225938845</v>
       </c>
       <c r="N6" t="n">
-        <v>63.66980843770114</v>
+        <v>63.21274895924692</v>
       </c>
       <c r="O6" t="n">
-        <v>7.979336340680291</v>
+        <v>7.950644562502271</v>
       </c>
       <c r="P6" t="n">
-        <v>305.1313084925484</v>
+        <v>305.2081747092188</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16915,28 +17080,28 @@
         <v>0.0769</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1250049808129619</v>
+        <v>0.1094195374904919</v>
       </c>
       <c r="J7" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K7" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01267755959002803</v>
+        <v>0.009758661362104126</v>
       </c>
       <c r="M7" t="n">
-        <v>5.99975674798596</v>
+        <v>6.050425664748048</v>
       </c>
       <c r="N7" t="n">
-        <v>61.27167893637177</v>
+        <v>61.93035201370495</v>
       </c>
       <c r="O7" t="n">
-        <v>7.827622815157343</v>
+        <v>7.869583979709788</v>
       </c>
       <c r="P7" t="n">
-        <v>315.1106831840777</v>
+        <v>315.2721886033934</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -16993,28 +17158,28 @@
         <v>0.0684</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1138677962546645</v>
+        <v>0.09860133584312246</v>
       </c>
       <c r="J8" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K8" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009488364552866502</v>
+        <v>0.007124375029786356</v>
       </c>
       <c r="M8" t="n">
-        <v>6.317970544880254</v>
+        <v>6.393970544401681</v>
       </c>
       <c r="N8" t="n">
-        <v>68.24974650879365</v>
+        <v>69.23558083350426</v>
       </c>
       <c r="O8" t="n">
-        <v>8.261340478929171</v>
+        <v>8.320792079694352</v>
       </c>
       <c r="P8" t="n">
-        <v>317.5196336012795</v>
+        <v>317.6764197602836</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17071,28 +17236,28 @@
         <v>0.0462</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1541536084701532</v>
+        <v>0.1462567785463112</v>
       </c>
       <c r="J9" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K9" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01388569335041268</v>
+        <v>0.01274886153368227</v>
       </c>
       <c r="M9" t="n">
-        <v>7.218125484670446</v>
+        <v>7.217336958948932</v>
       </c>
       <c r="N9" t="n">
-        <v>84.59576443331558</v>
+        <v>84.21897531732152</v>
       </c>
       <c r="O9" t="n">
-        <v>9.197595578917111</v>
+        <v>9.177089697574145</v>
       </c>
       <c r="P9" t="n">
-        <v>323.309110394212</v>
+        <v>323.3899575201294</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -17149,28 +17314,28 @@
         <v>0.0417</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04652359834306465</v>
+        <v>0.05180068924427829</v>
       </c>
       <c r="J10" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K10" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001204822134048267</v>
+        <v>0.001525279997106832</v>
       </c>
       <c r="M10" t="n">
-        <v>7.60776050491701</v>
+        <v>7.572299160071008</v>
       </c>
       <c r="N10" t="n">
-        <v>89.78611070345754</v>
+        <v>89.16677807138942</v>
       </c>
       <c r="O10" t="n">
-        <v>9.475553319118495</v>
+        <v>9.442816215059436</v>
       </c>
       <c r="P10" t="n">
-        <v>337.7431037762697</v>
+        <v>337.6890628719636</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -17227,28 +17392,28 @@
         <v>0.0565</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06893828691089142</v>
+        <v>0.06725938281516625</v>
       </c>
       <c r="J11" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K11" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003922762715907413</v>
+        <v>0.003820384223092166</v>
       </c>
       <c r="M11" t="n">
-        <v>6.031570166361361</v>
+        <v>6.000531792792898</v>
       </c>
       <c r="N11" t="n">
-        <v>59.69163972556959</v>
+        <v>59.19452668581976</v>
       </c>
       <c r="O11" t="n">
-        <v>7.726036482283111</v>
+        <v>7.69379793637835</v>
       </c>
       <c r="P11" t="n">
-        <v>339.734849402861</v>
+        <v>339.752279265035</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -17305,28 +17470,28 @@
         <v>0.0541</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1472118964112666</v>
+        <v>0.1317667379995964</v>
       </c>
       <c r="J12" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K12" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01280650241519077</v>
+        <v>0.01047004385569794</v>
       </c>
       <c r="M12" t="n">
-        <v>7.096999177958894</v>
+        <v>7.08329114626444</v>
       </c>
       <c r="N12" t="n">
-        <v>81.51937954491876</v>
+        <v>81.21998384866744</v>
       </c>
       <c r="O12" t="n">
-        <v>9.028808312558128</v>
+        <v>9.012213038353423</v>
       </c>
       <c r="P12" t="n">
-        <v>328.9543854671827</v>
+        <v>329.1163723827662</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -17364,7 +17529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M299"/>
+  <dimension ref="A1:M302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36105,6 +36270,207 @@
         </is>
       </c>
     </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>-35.55974786168196,174.48614723793116</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>-35.56010895917105,174.4869344829356</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>-35.56041283919909,174.48775171813645</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>-35.560718205826504,174.48856817371336</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>-35.560974116757016,174.48941298402343</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>-35.561250931545175,174.4902809225207</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>-35.561471981751005,174.49117041288235</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>-35.56158517628589,174.49206689763918</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>-35.561658187312155,174.49301330925093</t>
+        </is>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>-35.561667865083464,174.49394642000263</t>
+        </is>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>-35.56183066422316,174.4948482195878</t>
+        </is>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>-35.559688968217124,174.48617810700668</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>-35.56002678043164,174.48697755658057</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>-35.56041283919909,174.48775171813645</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>-35.56068185147232,174.48858722828035</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>-35.560925676222226,174.48943813350874</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>-35.561102169710736,174.4903467223863</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>-35.561280121266414,174.49124197784826</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>-35.561465432166564,174.49211156195364</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>-35.561549848937055,174.49303709451615</t>
+        </is>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>-35.561633916493555,174.4939478439239</t>
+        </is>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>-35.56177063034266,174.49484896732048</t>
+        </is>
+      </c>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>-35.55977663957133,174.48613215395082</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>-35.56008230020962,174.4869484561297</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>-35.5605057314154,174.48770302950314</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>-35.56076015952903,174.48854618431278</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>-35.56098476276719,174.48940745679536</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>-35.56126121395032,174.49027637443047</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>-35.56147875407714,174.49116788676298</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>-35.56157571977776,174.49207042490244</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>-35.56164603140954,174.49301597803463</t>
+        </is>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>-35.561720954289314,174.4939441932564</t>
+        </is>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>-35.56185716566573,174.49484788950772</t>
+        </is>
+      </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0090/nzd0090.xlsx
+++ b/data/nzd0090/nzd0090.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0090/nzd0090.xlsx
+++ b/data/nzd0090/nzd0090.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M302"/>
+  <dimension ref="A1:M303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13398,6 +13398,51 @@
         </is>
       </c>
     </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>303.7571428571428</v>
+      </c>
+      <c r="C303" t="n">
+        <v>295.1971428571428</v>
+      </c>
+      <c r="D303" t="n">
+        <v>299.23</v>
+      </c>
+      <c r="E303" t="n">
+        <v>300.6871428571428</v>
+      </c>
+      <c r="F303" t="n">
+        <v>302.8171428571428</v>
+      </c>
+      <c r="G303" t="n">
+        <v>316.9571428571429</v>
+      </c>
+      <c r="H303" t="n">
+        <v>323.4846153846154</v>
+      </c>
+      <c r="I303" t="n">
+        <v>328.2266666666667</v>
+      </c>
+      <c r="J303" t="n">
+        <v>338.16</v>
+      </c>
+      <c r="K303" t="n">
+        <v>342.2672727272728</v>
+      </c>
+      <c r="L303" t="n">
+        <v>327.18</v>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -13409,7 +13454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B310"/>
+  <dimension ref="A1:B311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16517,6 +16562,16 @@
       </c>
       <c r="B310" t="n">
         <v>0.79</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
@@ -16690,28 +16745,28 @@
         <v>0.0747</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1675824002180998</v>
+        <v>0.1608165369130105</v>
       </c>
       <c r="J2" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K2" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02152161670434427</v>
+        <v>0.0199223036622489</v>
       </c>
       <c r="M2" t="n">
-        <v>6.035390830631887</v>
+        <v>6.049584441872554</v>
       </c>
       <c r="N2" t="n">
-        <v>65.04139044290412</v>
+        <v>65.09244376299648</v>
       </c>
       <c r="O2" t="n">
-        <v>8.064824266089381</v>
+        <v>8.067988830123433</v>
       </c>
       <c r="P2" t="n">
-        <v>308.376965429424</v>
+        <v>308.4470984632572</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16768,28 +16823,28 @@
         <v>0.0756</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1733729732021354</v>
+        <v>0.1671354905363846</v>
       </c>
       <c r="J3" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K3" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02716182712783544</v>
+        <v>0.02536656292752304</v>
       </c>
       <c r="M3" t="n">
-        <v>5.642913207688661</v>
+        <v>5.656140293650353</v>
       </c>
       <c r="N3" t="n">
-        <v>54.94368114847352</v>
+        <v>55.00208247532854</v>
       </c>
       <c r="O3" t="n">
-        <v>7.412400498386034</v>
+        <v>7.416338886224694</v>
       </c>
       <c r="P3" t="n">
-        <v>299.2127753570363</v>
+        <v>299.2777026787917</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16846,28 +16901,28 @@
         <v>0.082</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1259143333735554</v>
+        <v>0.1251823388441256</v>
       </c>
       <c r="J4" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K4" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01183625052026682</v>
+        <v>0.01179019354153266</v>
       </c>
       <c r="M4" t="n">
-        <v>6.076319056059072</v>
+        <v>6.057727861686756</v>
       </c>
       <c r="N4" t="n">
-        <v>67.38098482473262</v>
+        <v>67.14211966541994</v>
       </c>
       <c r="O4" t="n">
-        <v>8.208592134144114</v>
+        <v>8.194029513335911</v>
       </c>
       <c r="P4" t="n">
-        <v>296.9805359697676</v>
+        <v>296.9881536432363</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16924,28 +16979,28 @@
         <v>0.0745</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1241420738704747</v>
+        <v>0.1230228455788727</v>
       </c>
       <c r="J5" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K5" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01219920965979771</v>
+        <v>0.01207616604776662</v>
       </c>
       <c r="M5" t="n">
-        <v>6.186533866622281</v>
+        <v>6.169664846960194</v>
       </c>
       <c r="N5" t="n">
-        <v>64.6396371885938</v>
+        <v>64.4118625414457</v>
       </c>
       <c r="O5" t="n">
-        <v>8.039877933687414</v>
+        <v>8.025700127804782</v>
       </c>
       <c r="P5" t="n">
-        <v>298.9913513179062</v>
+        <v>299.0028093069908</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17002,28 +17057,28 @@
         <v>0.075</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1053938176378428</v>
+        <v>0.1017160052258104</v>
       </c>
       <c r="J6" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K6" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009081209718928673</v>
+        <v>0.008515691369640255</v>
       </c>
       <c r="M6" t="n">
-        <v>6.066652225938845</v>
+        <v>6.062921511873168</v>
       </c>
       <c r="N6" t="n">
-        <v>63.21274895924692</v>
+        <v>63.07857233541606</v>
       </c>
       <c r="O6" t="n">
-        <v>7.950644562502271</v>
+        <v>7.942201982788908</v>
       </c>
       <c r="P6" t="n">
-        <v>305.2081747092188</v>
+        <v>305.2459019852782</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17080,28 +17135,28 @@
         <v>0.0769</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1094195374904919</v>
+        <v>0.1085936327013356</v>
       </c>
       <c r="J7" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K7" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009758661362104126</v>
+        <v>0.009685868579705659</v>
       </c>
       <c r="M7" t="n">
-        <v>6.050425664748048</v>
+        <v>6.033052119332749</v>
       </c>
       <c r="N7" t="n">
-        <v>61.93035201370495</v>
+        <v>61.71370906119989</v>
       </c>
       <c r="O7" t="n">
-        <v>7.869583979709788</v>
+        <v>7.855807346237552</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2721886033934</v>
+        <v>315.2807890391468</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17158,28 +17213,28 @@
         <v>0.0684</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09860133584312246</v>
+        <v>0.1010633586623174</v>
       </c>
       <c r="J8" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K8" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007124375029786356</v>
+        <v>0.007537674531998273</v>
       </c>
       <c r="M8" t="n">
-        <v>6.393970544401681</v>
+        <v>6.380800586940978</v>
       </c>
       <c r="N8" t="n">
-        <v>69.23558083350426</v>
+        <v>69.02143107824506</v>
       </c>
       <c r="O8" t="n">
-        <v>8.320792079694352</v>
+        <v>8.307913762085224</v>
       </c>
       <c r="P8" t="n">
-        <v>317.6764197602836</v>
+        <v>317.6510126640388</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17236,28 +17291,28 @@
         <v>0.0462</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1462567785463112</v>
+        <v>0.1470859979879841</v>
       </c>
       <c r="J9" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K9" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01274886153368227</v>
+        <v>0.01299810266508949</v>
       </c>
       <c r="M9" t="n">
-        <v>7.217336958948932</v>
+        <v>7.19438659545422</v>
       </c>
       <c r="N9" t="n">
-        <v>84.21897531732152</v>
+        <v>83.91123855277202</v>
       </c>
       <c r="O9" t="n">
-        <v>9.177089697574145</v>
+        <v>9.160307776094209</v>
       </c>
       <c r="P9" t="n">
-        <v>323.3899575201294</v>
+        <v>323.381426665833</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -17314,28 +17369,28 @@
         <v>0.0417</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05180068924427829</v>
+        <v>0.05112443232599755</v>
       </c>
       <c r="J10" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K10" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001525279997106832</v>
+        <v>0.001498322350281467</v>
       </c>
       <c r="M10" t="n">
-        <v>7.572299160071008</v>
+        <v>7.547120212813129</v>
       </c>
       <c r="N10" t="n">
-        <v>89.16677807138942</v>
+        <v>88.83681362220675</v>
       </c>
       <c r="O10" t="n">
-        <v>9.442816215059436</v>
+        <v>9.425328303152456</v>
       </c>
       <c r="P10" t="n">
-        <v>337.6890628719636</v>
+        <v>337.6960197239503</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -17392,28 +17447,28 @@
         <v>0.0565</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06725938281516625</v>
+        <v>0.06788474715950965</v>
       </c>
       <c r="J11" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K11" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003820384223092166</v>
+        <v>0.003924559584452592</v>
       </c>
       <c r="M11" t="n">
-        <v>6.000531792792898</v>
+        <v>5.980250787301268</v>
       </c>
       <c r="N11" t="n">
-        <v>59.19452668581976</v>
+        <v>58.97175230543776</v>
       </c>
       <c r="O11" t="n">
-        <v>7.69379793637835</v>
+        <v>7.679306759430682</v>
       </c>
       <c r="P11" t="n">
-        <v>339.752279265035</v>
+        <v>339.745773675825</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -17470,28 +17525,28 @@
         <v>0.0541</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1317667379995964</v>
+        <v>0.1274814430430278</v>
       </c>
       <c r="J12" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K12" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01047004385569794</v>
+        <v>0.009876505541855152</v>
       </c>
       <c r="M12" t="n">
-        <v>7.08329114626444</v>
+        <v>7.075382587027936</v>
       </c>
       <c r="N12" t="n">
-        <v>81.21998384866744</v>
+        <v>81.01710320774917</v>
       </c>
       <c r="O12" t="n">
-        <v>9.012213038353423</v>
+        <v>9.00095012805588</v>
       </c>
       <c r="P12" t="n">
-        <v>329.1163723827662</v>
+        <v>329.1615217614063</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -17529,7 +17584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M302"/>
+  <dimension ref="A1:M303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36471,6 +36526,73 @@
         </is>
       </c>
     </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>-35.55979179205867,174.4861242117439</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>-35.560156618571696,174.48690950241607</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>-35.5604170929614,174.48774948856715</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>-35.560698909963186,174.48857828734103</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>-35.56097587133332,174.48941207307726</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>-35.561155907096314,174.49032295346413</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>-35.56132586266684,174.49122491609725</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>-35.56150457080866,174.49209696333386</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>-35.5616447892005,174.49301625075702</t>
+        </is>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>-35.56166109993625,174.49394670375636</t>
+        </is>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>-35.56181191490318,174.49484845311386</t>
+        </is>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0090/nzd0090.xlsx
+++ b/data/nzd0090/nzd0090.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M303"/>
+  <dimension ref="A1:M305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13443,6 +13443,94 @@
         </is>
       </c>
     </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>307.8528571428571</v>
+      </c>
+      <c r="C304" t="n">
+        <v>299.3128571428572</v>
+      </c>
+      <c r="D304" t="n">
+        <v>295.9666666666666</v>
+      </c>
+      <c r="E304" t="n">
+        <v>296.0628571428572</v>
+      </c>
+      <c r="F304" t="n">
+        <v>297.1728571428571</v>
+      </c>
+      <c r="G304" t="n">
+        <v>309.9328571428572</v>
+      </c>
+      <c r="H304" t="n">
+        <v>317.31</v>
+      </c>
+      <c r="I304" t="n">
+        <v>325.5311111111111</v>
+      </c>
+      <c r="J304" t="n">
+        <v>334.91</v>
+      </c>
+      <c r="K304" t="n">
+        <v>341.9563636363636</v>
+      </c>
+      <c r="L304" t="n">
+        <v>322.69</v>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr"/>
+      <c r="C305" t="n">
+        <v>297.5085714285714</v>
+      </c>
+      <c r="D305" t="n">
+        <v>290.7833333333333</v>
+      </c>
+      <c r="E305" t="n">
+        <v>294.3585714285715</v>
+      </c>
+      <c r="F305" t="n">
+        <v>292.5085714285714</v>
+      </c>
+      <c r="G305" t="n">
+        <v>306.5185714285714</v>
+      </c>
+      <c r="H305" t="n">
+        <v>307.8784615384615</v>
+      </c>
+      <c r="I305" t="n">
+        <v>319.3022222222222</v>
+      </c>
+      <c r="J305" t="n">
+        <v>333.99</v>
+      </c>
+      <c r="K305" t="n">
+        <v>338.3581818181818</v>
+      </c>
+      <c r="L305" t="n">
+        <v>321.97</v>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -13454,7 +13542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B311"/>
+  <dimension ref="A1:B313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16572,6 +16660,26 @@
       </c>
       <c r="B311" t="n">
         <v>0.48</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -16745,28 +16853,28 @@
         <v>0.0747</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1608165369130105</v>
+        <v>0.1572321246401191</v>
       </c>
       <c r="J2" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K2" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0199223036622489</v>
+        <v>0.01918820436889646</v>
       </c>
       <c r="M2" t="n">
-        <v>6.049584441872554</v>
+        <v>6.046487988243789</v>
       </c>
       <c r="N2" t="n">
-        <v>65.09244376299648</v>
+        <v>64.93571409698882</v>
       </c>
       <c r="O2" t="n">
-        <v>8.067988830123433</v>
+        <v>8.058269919591227</v>
       </c>
       <c r="P2" t="n">
-        <v>308.4470984632572</v>
+        <v>308.4843970106321</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16823,28 +16931,28 @@
         <v>0.0756</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1671354905363846</v>
+        <v>0.1596026701669538</v>
       </c>
       <c r="J3" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K3" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02536656292752304</v>
+        <v>0.02345344778790537</v>
       </c>
       <c r="M3" t="n">
-        <v>5.656140293650353</v>
+        <v>5.655776960871776</v>
       </c>
       <c r="N3" t="n">
-        <v>55.00208247532854</v>
+        <v>54.80232270413203</v>
       </c>
       <c r="O3" t="n">
-        <v>7.416338886224694</v>
+        <v>7.402859089847113</v>
       </c>
       <c r="P3" t="n">
-        <v>299.2777026787917</v>
+        <v>299.356466076567</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16901,28 +17009,28 @@
         <v>0.082</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1251823388441256</v>
+        <v>0.1152207269157647</v>
       </c>
       <c r="J4" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K4" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01179019354153266</v>
+        <v>0.01010457325870262</v>
       </c>
       <c r="M4" t="n">
-        <v>6.057727861686756</v>
+        <v>6.060661128469901</v>
       </c>
       <c r="N4" t="n">
-        <v>67.14211966541994</v>
+        <v>67.03820261321061</v>
       </c>
       <c r="O4" t="n">
-        <v>8.194029513335911</v>
+        <v>8.187686035334441</v>
       </c>
       <c r="P4" t="n">
-        <v>296.9881536432363</v>
+        <v>297.0922946584055</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16979,28 +17087,28 @@
         <v>0.0745</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1230228455788727</v>
+        <v>0.112772033803412</v>
       </c>
       <c r="J5" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K5" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01207616604776662</v>
+        <v>0.01027267872262849</v>
       </c>
       <c r="M5" t="n">
-        <v>6.169664846960194</v>
+        <v>6.176555703264162</v>
       </c>
       <c r="N5" t="n">
-        <v>64.4118625414457</v>
+        <v>64.2946606759896</v>
       </c>
       <c r="O5" t="n">
-        <v>8.025700127804782</v>
+        <v>8.018395143418015</v>
       </c>
       <c r="P5" t="n">
-        <v>299.0028093069908</v>
+        <v>299.1082188286425</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17057,28 +17165,28 @@
         <v>0.075</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1017160052258104</v>
+        <v>0.08317660865267421</v>
       </c>
       <c r="J6" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K6" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008515691369640255</v>
+        <v>0.00568726072680692</v>
       </c>
       <c r="M6" t="n">
-        <v>6.062921511873168</v>
+        <v>6.110131424849245</v>
       </c>
       <c r="N6" t="n">
-        <v>63.07857233541606</v>
+        <v>63.85097734761715</v>
       </c>
       <c r="O6" t="n">
-        <v>7.942201982788908</v>
+        <v>7.99068065609039</v>
       </c>
       <c r="P6" t="n">
-        <v>305.2459019852782</v>
+        <v>305.4369537055961</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17135,28 +17243,28 @@
         <v>0.0769</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1085936327013356</v>
+        <v>0.09440316613014853</v>
       </c>
       <c r="J7" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K7" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009685868579705659</v>
+        <v>0.007366392019730661</v>
       </c>
       <c r="M7" t="n">
-        <v>6.033052119332749</v>
+        <v>6.062467713457814</v>
       </c>
       <c r="N7" t="n">
-        <v>61.71370906119989</v>
+        <v>61.97134301479477</v>
       </c>
       <c r="O7" t="n">
-        <v>7.855807346237552</v>
+        <v>7.872187943309965</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2807890391468</v>
+        <v>315.4292223104229</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17213,28 +17321,28 @@
         <v>0.0684</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1010633586623174</v>
+        <v>0.08966202389507913</v>
       </c>
       <c r="J8" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K8" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007537674531998273</v>
+        <v>0.005987588566065738</v>
       </c>
       <c r="M8" t="n">
-        <v>6.380800586940978</v>
+        <v>6.397110601022183</v>
       </c>
       <c r="N8" t="n">
-        <v>69.02143107824506</v>
+        <v>69.09896619496139</v>
       </c>
       <c r="O8" t="n">
-        <v>8.307913762085224</v>
+        <v>8.312578793308452</v>
       </c>
       <c r="P8" t="n">
-        <v>317.6510126640388</v>
+        <v>317.7692144122692</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17291,28 +17399,28 @@
         <v>0.0462</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1470859979879841</v>
+        <v>0.1397964160379631</v>
       </c>
       <c r="J9" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K9" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01299810266508949</v>
+        <v>0.0119180039127883</v>
       </c>
       <c r="M9" t="n">
-        <v>7.19438659545422</v>
+        <v>7.177300037625594</v>
       </c>
       <c r="N9" t="n">
-        <v>83.91123855277202</v>
+        <v>83.52882151602407</v>
       </c>
       <c r="O9" t="n">
-        <v>9.160307776094209</v>
+        <v>9.13941034837719</v>
       </c>
       <c r="P9" t="n">
-        <v>323.381426665833</v>
+        <v>323.4567619681606</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -17369,28 +17477,28 @@
         <v>0.0417</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05112443232599755</v>
+        <v>0.04407466200863475</v>
       </c>
       <c r="J10" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K10" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001498322350281467</v>
+        <v>0.001130937644037711</v>
       </c>
       <c r="M10" t="n">
-        <v>7.547120212813129</v>
+        <v>7.522765737534845</v>
       </c>
       <c r="N10" t="n">
-        <v>88.83681362220675</v>
+        <v>88.33119205357254</v>
       </c>
       <c r="O10" t="n">
-        <v>9.425328303152456</v>
+        <v>9.398467537506981</v>
       </c>
       <c r="P10" t="n">
-        <v>337.6960197239503</v>
+        <v>337.7688525684107</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -17447,28 +17555,28 @@
         <v>0.0565</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06788474715950965</v>
+        <v>0.06576674062810253</v>
       </c>
       <c r="J11" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K11" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003924559584452592</v>
+        <v>0.003744820727704989</v>
       </c>
       <c r="M11" t="n">
-        <v>5.980250787301268</v>
+        <v>5.950182208345386</v>
       </c>
       <c r="N11" t="n">
-        <v>58.97175230543776</v>
+        <v>58.56442722919888</v>
       </c>
       <c r="O11" t="n">
-        <v>7.679306759430682</v>
+        <v>7.652739851138211</v>
       </c>
       <c r="P11" t="n">
-        <v>339.745773675825</v>
+        <v>339.7679139218513</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -17525,28 +17633,28 @@
         <v>0.0541</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1274814430430278</v>
+        <v>0.1114411781886562</v>
       </c>
       <c r="J12" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K12" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L12" t="n">
-        <v>0.009876505541855152</v>
+        <v>0.007621502744006081</v>
       </c>
       <c r="M12" t="n">
-        <v>7.075382587027936</v>
+        <v>7.092152292008905</v>
       </c>
       <c r="N12" t="n">
-        <v>81.01710320774917</v>
+        <v>81.16257643122502</v>
       </c>
       <c r="O12" t="n">
-        <v>9.00095012805588</v>
+        <v>9.009027496418524</v>
       </c>
       <c r="P12" t="n">
-        <v>329.1615217614063</v>
+        <v>329.3312329416468</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -17584,7 +17692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M303"/>
+  <dimension ref="A1:M305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36593,6 +36701,136 @@
         </is>
       </c>
     </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>-35.55975785285395,174.4861420010424</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>-35.560122513571386,174.48692737844402</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>-35.5604441347352,174.48773531487134</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>-35.56073722941612,174.48855820278874</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>-35.561022711405116,174.4893877544931</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>-35.561215457851816,174.49029661315555</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>-35.561379106025505,174.49120505605714</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>-35.56152781446655,174.49208829349843</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>-35.56167362619566,174.49300991969972</t>
+        </is>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>-35.56166390100205,174.49394658626994</t>
+        </is>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>-35.561852388194794,174.49484794901193</t>
+        </is>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr"/>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>-35.56013746484396,174.4869195417838</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>-35.56048708668121,174.48771280198514</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>-35.560751352092915,174.48855080059963</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>-35.561061418775566,174.48936765824928</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>-35.56124440361063,174.49028380994136</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>-35.561460433641386,174.4911747203974</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>-35.5615815259013,174.49206825922724</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>-35.561681789283455,174.49300812752276</t>
+        </is>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>-35.56169631801489,174.49394522658775</t>
+        </is>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>-35.561858878343976,174.49484786817604</t>
+        </is>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0090/nzd0090.xlsx
+++ b/data/nzd0090/nzd0090.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M305"/>
+  <dimension ref="A1:M306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13494,7 +13494,9 @@
           <t>2025-08-09 22:11:49+00:00</t>
         </is>
       </c>
-      <c r="B305" t="inlineStr"/>
+      <c r="B305" t="n">
+        <v>557.3285714285714</v>
+      </c>
       <c r="C305" t="n">
         <v>297.5085714285714</v>
       </c>
@@ -13528,6 +13530,47 @@
       <c r="M305" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>584.6342857142856</v>
+      </c>
+      <c r="C306" t="inlineStr"/>
+      <c r="D306" t="inlineStr"/>
+      <c r="E306" t="n">
+        <v>299.6842857142857</v>
+      </c>
+      <c r="F306" t="n">
+        <v>303.0142857142857</v>
+      </c>
+      <c r="G306" t="n">
+        <v>318.5142857142857</v>
+      </c>
+      <c r="H306" t="n">
+        <v>322.4030769230769</v>
+      </c>
+      <c r="I306" t="n">
+        <v>331.28</v>
+      </c>
+      <c r="J306" t="n">
+        <v>344.5</v>
+      </c>
+      <c r="K306" t="n">
+        <v>334.4990909090909</v>
+      </c>
+      <c r="L306" t="n">
+        <v>306.92</v>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -13542,7 +13585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B313"/>
+  <dimension ref="A1:B314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16680,6 +16723,16 @@
       </c>
       <c r="B313" t="n">
         <v>0.1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>-0.72</v>
       </c>
     </row>
   </sheetData>
@@ -16853,28 +16906,28 @@
         <v>0.0747</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1572321246401191</v>
+        <v>0.5410981171881797</v>
       </c>
       <c r="J2" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K2" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01918820436889646</v>
+        <v>0.02731951224613016</v>
       </c>
       <c r="M2" t="n">
-        <v>6.046487988243789</v>
+        <v>8.323609674328257</v>
       </c>
       <c r="N2" t="n">
-        <v>64.93571409698882</v>
+        <v>540.3313072150387</v>
       </c>
       <c r="O2" t="n">
-        <v>8.058269919591227</v>
+        <v>23.24502758043188</v>
       </c>
       <c r="P2" t="n">
-        <v>308.4843970106321</v>
+        <v>304.4760657758019</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16934,7 +16987,7 @@
         <v>0.1596026701669538</v>
       </c>
       <c r="J3" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K3" t="n">
         <v>279</v>
@@ -17012,7 +17065,7 @@
         <v>0.1152207269157647</v>
       </c>
       <c r="J4" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K4" t="n">
         <v>280</v>
@@ -17087,28 +17140,28 @@
         <v>0.0745</v>
       </c>
       <c r="I5" t="n">
-        <v>0.112772033803412</v>
+        <v>0.1110429565256938</v>
       </c>
       <c r="J5" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K5" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01027267872262849</v>
+        <v>0.01003875825774614</v>
       </c>
       <c r="M5" t="n">
-        <v>6.176555703264162</v>
+        <v>6.162977972755581</v>
       </c>
       <c r="N5" t="n">
-        <v>64.2946606759896</v>
+        <v>64.0823144875544</v>
       </c>
       <c r="O5" t="n">
-        <v>8.018395143418015</v>
+        <v>8.005143002317597</v>
       </c>
       <c r="P5" t="n">
-        <v>299.1082188286425</v>
+        <v>299.1260933230794</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17165,28 +17218,28 @@
         <v>0.075</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08317660865267421</v>
+        <v>0.07991725943179429</v>
       </c>
       <c r="J6" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K6" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00568726072680692</v>
+        <v>0.00528641709245059</v>
       </c>
       <c r="M6" t="n">
-        <v>6.110131424849245</v>
+        <v>6.104337180641297</v>
       </c>
       <c r="N6" t="n">
-        <v>63.85097734761715</v>
+        <v>63.69822061544761</v>
       </c>
       <c r="O6" t="n">
-        <v>7.99068065609039</v>
+        <v>7.98111650180898</v>
       </c>
       <c r="P6" t="n">
-        <v>305.4369537055961</v>
+        <v>305.4707230701463</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17243,28 +17296,28 @@
         <v>0.0769</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09440316613014853</v>
+        <v>0.09485841259187874</v>
       </c>
       <c r="J7" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K7" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007366392019730661</v>
+        <v>0.007493566921945138</v>
       </c>
       <c r="M7" t="n">
-        <v>6.062467713457814</v>
+        <v>6.043182676358663</v>
       </c>
       <c r="N7" t="n">
-        <v>61.97134301479477</v>
+        <v>61.7537621349868</v>
       </c>
       <c r="O7" t="n">
-        <v>7.872187943309965</v>
+        <v>7.858356198021746</v>
       </c>
       <c r="P7" t="n">
-        <v>315.4292223104229</v>
+        <v>315.4244352691051</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17321,28 +17374,28 @@
         <v>0.0684</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08966202389507913</v>
+        <v>0.09137336547323585</v>
       </c>
       <c r="J8" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K8" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005987588566065738</v>
+        <v>0.006264825238118998</v>
       </c>
       <c r="M8" t="n">
-        <v>6.397110601022183</v>
+        <v>6.381145393238026</v>
       </c>
       <c r="N8" t="n">
-        <v>69.09896619496139</v>
+        <v>68.86846612788814</v>
       </c>
       <c r="O8" t="n">
-        <v>8.312578793308452</v>
+        <v>8.298702677400133</v>
       </c>
       <c r="P8" t="n">
-        <v>317.7692144122692</v>
+        <v>317.7513839311464</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17399,28 +17452,28 @@
         <v>0.0462</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1397964160379631</v>
+        <v>0.1429961602330787</v>
       </c>
       <c r="J9" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K9" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0119180039127883</v>
+        <v>0.01255607908919942</v>
       </c>
       <c r="M9" t="n">
-        <v>7.177300037625594</v>
+        <v>7.16584381175011</v>
       </c>
       <c r="N9" t="n">
-        <v>83.52882151602407</v>
+        <v>83.28645195250675</v>
       </c>
       <c r="O9" t="n">
-        <v>9.13941034837719</v>
+        <v>9.12614113152469</v>
       </c>
       <c r="P9" t="n">
-        <v>323.4567619681606</v>
+        <v>323.4235327612765</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -17477,28 +17530,28 @@
         <v>0.0417</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04407466200863475</v>
+        <v>0.04838092865174995</v>
       </c>
       <c r="J10" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K10" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001130937644037711</v>
+        <v>0.001372111612607751</v>
       </c>
       <c r="M10" t="n">
-        <v>7.522765737534845</v>
+        <v>7.516739942574718</v>
       </c>
       <c r="N10" t="n">
-        <v>88.33119205357254</v>
+        <v>88.11901382738584</v>
       </c>
       <c r="O10" t="n">
-        <v>9.398467537506981</v>
+        <v>9.387172834639077</v>
       </c>
       <c r="P10" t="n">
-        <v>337.7688525684107</v>
+        <v>337.7241360471759</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -17555,28 +17608,28 @@
         <v>0.0565</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06576674062810253</v>
+        <v>0.06028085171143715</v>
       </c>
       <c r="J11" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K11" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003744820727704989</v>
+        <v>0.003164954596856506</v>
       </c>
       <c r="M11" t="n">
-        <v>5.950182208345386</v>
+        <v>5.957784734587283</v>
       </c>
       <c r="N11" t="n">
-        <v>58.56442722919888</v>
+        <v>58.52504718594982</v>
       </c>
       <c r="O11" t="n">
-        <v>7.652739851138211</v>
+        <v>7.650166480930322</v>
       </c>
       <c r="P11" t="n">
-        <v>339.7679139218513</v>
+        <v>339.8255186657219</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -17633,28 +17686,28 @@
         <v>0.0541</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1114411781886562</v>
+        <v>0.09141801772289516</v>
       </c>
       <c r="J12" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K12" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L12" t="n">
-        <v>0.007621502744006081</v>
+        <v>0.00503695430667539</v>
       </c>
       <c r="M12" t="n">
-        <v>7.092152292008905</v>
+        <v>7.156196673416349</v>
       </c>
       <c r="N12" t="n">
-        <v>81.16257643122502</v>
+        <v>83.24356725885228</v>
       </c>
       <c r="O12" t="n">
-        <v>9.009027496418524</v>
+        <v>9.123791276593973</v>
       </c>
       <c r="P12" t="n">
-        <v>329.3312329416468</v>
+        <v>329.5441680376505</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -17692,7 +17745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M305"/>
+  <dimension ref="A1:M306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36774,7 +36827,11 @@
           <t>2025-08-09 22:11:49+00:00</t>
         </is>
       </c>
-      <c r="B305" t="inlineStr"/>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>-35.557690563573665,174.48722554472727</t>
+        </is>
+      </c>
       <c r="C305" t="inlineStr">
         <is>
           <t>-35.56013746484396,174.4869195417838</t>
@@ -36828,6 +36885,65 @@
       <c r="M305" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>-35.557464293260665,174.4873441378936</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr"/>
+      <c r="D306" t="inlineStr"/>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>-35.560707220206254,174.48857393165656</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>-35.56097423530947,174.489412922473</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>-35.561142705890894,174.49032879257564</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>-35.56133518871194,174.4912214374375</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>-35.561478242047905,174.49210678390014</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>-35.56158853487665,174.49302860117677</t>
+        </is>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>-35.561731085629546,174.49394376831248</t>
+        </is>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>-35.561994540488705,174.49484617848216</t>
+        </is>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0090/nzd0090.xlsx
+++ b/data/nzd0090/nzd0090.xlsx
@@ -16897,13 +16897,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0674</v>
+        <v>0.0539</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0747</v>
+        <v>0.0824</v>
       </c>
       <c r="I2" t="n">
         <v>0.5411047119383662</v>
@@ -16975,13 +16975,13 @@
         <v>0.1000607721452418</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06519999999999999</v>
+        <v>0.0641</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0756</v>
+        <v>0.1029</v>
       </c>
       <c r="I3" t="n">
         <v>0.1596114576839718</v>
@@ -17053,13 +17053,13 @@
         <v>0.2001215442901088</v>
       </c>
       <c r="F4" t="n">
-        <v>0.075</v>
+        <v>0.1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06909999999999999</v>
+        <v>0.0757</v>
       </c>
       <c r="H4" t="n">
-        <v>0.082</v>
+        <v>0.1428</v>
       </c>
       <c r="I4" t="n">
         <v>0.1151980675408151</v>
@@ -17131,13 +17131,13 @@
         <v>0.3001823164353505</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06270000000000001</v>
+        <v>0.1002</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0745</v>
+        <v>0.2</v>
       </c>
       <c r="I5" t="n">
         <v>0.11104900601978</v>
@@ -17209,13 +17209,13 @@
         <v>0.4002430885802175</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="G6" t="n">
-        <v>0.064</v>
+        <v>0.0645</v>
       </c>
       <c r="H6" t="n">
-        <v>0.075</v>
+        <v>0.0915</v>
       </c>
       <c r="I6" t="n">
         <v>0.07992364261627487</v>
@@ -17287,13 +17287,13 @@
         <v>0.500269028496562</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0655</v>
+        <v>0.0834</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0769</v>
+        <v>0.1114</v>
       </c>
       <c r="I7" t="n">
         <v>0.09486086567927478</v>
@@ -17365,13 +17365,13 @@
         <v>0.6003298006404048</v>
       </c>
       <c r="F8" t="n">
-        <v>0.065</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0581</v>
+        <v>0.07530000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0684</v>
+        <v>0.0941</v>
       </c>
       <c r="I8" t="n">
         <v>0.09141447390724639</v>
@@ -17446,10 +17446,10 @@
         <v>0.045</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0397</v>
+        <v>0.0395</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0462</v>
+        <v>0.0585</v>
       </c>
       <c r="I9" t="n">
         <v>0.1430117785634851</v>
@@ -17521,13 +17521,13 @@
         <v>0.8004513449275303</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0395</v>
+        <v>0.0369</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0417</v>
+        <v>0.0576</v>
       </c>
       <c r="I10" t="n">
         <v>0.04838092865174995</v>
@@ -17599,13 +17599,13 @@
         <v>0.8999392278543971</v>
       </c>
       <c r="F11" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0493</v>
+        <v>0.0534</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0565</v>
+        <v>0.0638</v>
       </c>
       <c r="I11" t="n">
         <v>0.06025343227189777</v>
@@ -17677,13 +17677,13 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0481</v>
+        <v>0.0561</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0541</v>
+        <v>0.0708</v>
       </c>
       <c r="I12" t="n">
         <v>0.09141801772289501</v>
